--- a/src/ProspectoBot.xlsx
+++ b/src/ProspectoBot.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="459">
   <si>
     <t>Fecha</t>
   </si>
@@ -1367,6 +1367,27 @@
   </si>
   <si>
     <t>11:00:21 a. m.</t>
+  </si>
+  <si>
+    <t>12:47:59 p. m.</t>
+  </si>
+  <si>
+    <t>2:17:57 p. m.</t>
+  </si>
+  <si>
+    <t>2:18:30 p. m.</t>
+  </si>
+  <si>
+    <t>miau y si deseo la inscripcion</t>
+  </si>
+  <si>
+    <t>2:18:49 p. m.</t>
+  </si>
+  <si>
+    <t>2:18:58 p. m.</t>
+  </si>
+  <si>
+    <t>Excel basico</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E280"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6421,6 +6442,91 @@
         <v>221</v>
       </c>
     </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>450</v>
+      </c>
+      <c r="B276" t="s">
+        <v>452</v>
+      </c>
+      <c r="C276" t="s">
+        <v>7</v>
+      </c>
+      <c r="D276" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>450</v>
+      </c>
+      <c r="B277" t="s">
+        <v>453</v>
+      </c>
+      <c r="C277" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>450</v>
+      </c>
+      <c r="B278" t="s">
+        <v>454</v>
+      </c>
+      <c r="C278" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>450</v>
+      </c>
+      <c r="B279" t="s">
+        <v>456</v>
+      </c>
+      <c r="C279" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>450</v>
+      </c>
+      <c r="B280" t="s">
+        <v>457</v>
+      </c>
+      <c r="C280" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" t="s">
+        <v>458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/src/ProspectoBot.xlsx
+++ b/src/ProspectoBot.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="468">
   <si>
     <t>Fecha</t>
   </si>
@@ -1388,6 +1388,33 @@
   </si>
   <si>
     <t>Excel basico</t>
+  </si>
+  <si>
+    <t>5/8/2025</t>
+  </si>
+  <si>
+    <t>7:31:05 PM</t>
+  </si>
+  <si>
+    <t>info de sap fi</t>
+  </si>
+  <si>
+    <t>7:36:44 PM</t>
+  </si>
+  <si>
+    <t>Info SAP</t>
+  </si>
+  <si>
+    <t>7:37:39 PM</t>
+  </si>
+  <si>
+    <t>7:37:49 PM</t>
+  </si>
+  <si>
+    <t>7:38:08 PM</t>
+  </si>
+  <si>
+    <t>Análisis</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E280"/>
+  <dimension ref="A1:E285"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6527,6 +6554,91 @@
         <v>458</v>
       </c>
     </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>459</v>
+      </c>
+      <c r="B281" t="s">
+        <v>460</v>
+      </c>
+      <c r="C281" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>459</v>
+      </c>
+      <c r="B282" t="s">
+        <v>462</v>
+      </c>
+      <c r="C282" t="s">
+        <v>394</v>
+      </c>
+      <c r="D282" t="s">
+        <v>395</v>
+      </c>
+      <c r="E282" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>459</v>
+      </c>
+      <c r="B283" t="s">
+        <v>464</v>
+      </c>
+      <c r="C283" t="s">
+        <v>394</v>
+      </c>
+      <c r="D283" t="s">
+        <v>395</v>
+      </c>
+      <c r="E283" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>459</v>
+      </c>
+      <c r="B284" t="s">
+        <v>465</v>
+      </c>
+      <c r="C284" t="s">
+        <v>394</v>
+      </c>
+      <c r="D284" t="s">
+        <v>395</v>
+      </c>
+      <c r="E284" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>459</v>
+      </c>
+      <c r="B285" t="s">
+        <v>466</v>
+      </c>
+      <c r="C285" t="s">
+        <v>394</v>
+      </c>
+      <c r="D285" t="s">
+        <v>395</v>
+      </c>
+      <c r="E285" t="s">
+        <v>467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/src/ProspectoBot.xlsx
+++ b/src/ProspectoBot.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="475">
   <si>
     <t>Fecha</t>
   </si>
@@ -1415,6 +1415,27 @@
   </si>
   <si>
     <t>Análisis</t>
+  </si>
+  <si>
+    <t>7:45:24 PM</t>
+  </si>
+  <si>
+    <t>Con darme un tiro botcito</t>
+  </si>
+  <si>
+    <t>8:03:13 PM</t>
+  </si>
+  <si>
+    <t>8:13:51 PM</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>8:14:54 PM</t>
+  </si>
+  <si>
+    <t>8:17:12 PM</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E290"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6639,6 +6660,91 @@
         <v>467</v>
       </c>
     </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>459</v>
+      </c>
+      <c r="B286" t="s">
+        <v>468</v>
+      </c>
+      <c r="C286" t="s">
+        <v>394</v>
+      </c>
+      <c r="D286" t="s">
+        <v>395</v>
+      </c>
+      <c r="E286" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>459</v>
+      </c>
+      <c r="B287" t="s">
+        <v>470</v>
+      </c>
+      <c r="C287" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" t="s">
+        <v>8</v>
+      </c>
+      <c r="E287" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>459</v>
+      </c>
+      <c r="B288" t="s">
+        <v>471</v>
+      </c>
+      <c r="C288" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>459</v>
+      </c>
+      <c r="B289" t="s">
+        <v>473</v>
+      </c>
+      <c r="C289" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>459</v>
+      </c>
+      <c r="B290" t="s">
+        <v>474</v>
+      </c>
+      <c r="C290" t="s">
+        <v>7</v>
+      </c>
+      <c r="D290" t="s">
+        <v>8</v>
+      </c>
+      <c r="E290" t="s">
+        <v>385</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/src/ProspectoBot.xlsx
+++ b/src/ProspectoBot.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="490">
   <si>
     <t>Fecha</t>
   </si>
@@ -1436,6 +1436,51 @@
   </si>
   <si>
     <t>8:17:12 PM</t>
+  </si>
+  <si>
+    <t>8:45:03 PM</t>
+  </si>
+  <si>
+    <t>9:06:56 PM</t>
+  </si>
+  <si>
+    <t>miau info de sap sd</t>
+  </si>
+  <si>
+    <t>5:51:38 p. m.</t>
+  </si>
+  <si>
+    <t>5:51:49 p. m.</t>
+  </si>
+  <si>
+    <t>cuota</t>
+  </si>
+  <si>
+    <t>5:55:26 p. m.</t>
+  </si>
+  <si>
+    <t>buena sinfo sap sd</t>
+  </si>
+  <si>
+    <t>5:55:33 p. m.</t>
+  </si>
+  <si>
+    <t>deseo pagar una cuota</t>
+  </si>
+  <si>
+    <t>5:56:01 p. m.</t>
+  </si>
+  <si>
+    <t>pee de datos</t>
+  </si>
+  <si>
+    <t>5:56:05 p. m.</t>
+  </si>
+  <si>
+    <t>6:03:04 p. m.</t>
+  </si>
+  <si>
+    <t>6:04:04 p. m.</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E300"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6745,6 +6790,176 @@
         <v>385</v>
       </c>
     </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>459</v>
+      </c>
+      <c r="B291" t="s">
+        <v>475</v>
+      </c>
+      <c r="C291" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" t="s">
+        <v>8</v>
+      </c>
+      <c r="E291" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>459</v>
+      </c>
+      <c r="B292" t="s">
+        <v>476</v>
+      </c>
+      <c r="C292" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" t="s">
+        <v>8</v>
+      </c>
+      <c r="E292" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>450</v>
+      </c>
+      <c r="B293" t="s">
+        <v>478</v>
+      </c>
+      <c r="C293" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" t="s">
+        <v>8</v>
+      </c>
+      <c r="E293" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>450</v>
+      </c>
+      <c r="B294" t="s">
+        <v>479</v>
+      </c>
+      <c r="C294" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" t="s">
+        <v>8</v>
+      </c>
+      <c r="E294" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>450</v>
+      </c>
+      <c r="B295" t="s">
+        <v>481</v>
+      </c>
+      <c r="C295" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" t="s">
+        <v>8</v>
+      </c>
+      <c r="E295" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>450</v>
+      </c>
+      <c r="B296" t="s">
+        <v>483</v>
+      </c>
+      <c r="C296" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" t="s">
+        <v>8</v>
+      </c>
+      <c r="E296" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>450</v>
+      </c>
+      <c r="B297" t="s">
+        <v>485</v>
+      </c>
+      <c r="C297" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" t="s">
+        <v>8</v>
+      </c>
+      <c r="E297" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>450</v>
+      </c>
+      <c r="B298" t="s">
+        <v>487</v>
+      </c>
+      <c r="C298" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>450</v>
+      </c>
+      <c r="B299" t="s">
+        <v>488</v>
+      </c>
+      <c r="C299" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" t="s">
+        <v>8</v>
+      </c>
+      <c r="E299" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>450</v>
+      </c>
+      <c r="B300" t="s">
+        <v>489</v>
+      </c>
+      <c r="C300" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" t="s">
+        <v>8</v>
+      </c>
+      <c r="E300" t="s">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
